--- a/汽柴煤油2.0/data_input/纯苯-Brent价差.xlsx
+++ b/汽柴煤油2.0/data_input/纯苯-Brent价差.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3646"/>
+  <dimension ref="A1:D3648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43130,7 +43130,7 @@
       </c>
       <c r="C3642" t="inlineStr"/>
       <c r="D3642" t="n">
-        <v>-1223.9625</v>
+        <v>-1234.5825</v>
       </c>
     </row>
     <row r="3643">
@@ -43141,7 +43141,9 @@
         <v>1820.172</v>
       </c>
       <c r="C3643" t="inlineStr"/>
-      <c r="D3643" t="inlineStr"/>
+      <c r="D3643" t="n">
+        <v>-1349.8251</v>
+      </c>
     </row>
     <row r="3644">
       <c r="A3644" s="2" t="n">
@@ -43151,7 +43153,9 @@
         <v>1776.4689</v>
       </c>
       <c r="C3644" t="inlineStr"/>
-      <c r="D3644" t="inlineStr"/>
+      <c r="D3644" t="n">
+        <v>-1393.5282</v>
+      </c>
     </row>
     <row r="3645">
       <c r="A3645" s="2" t="n">
@@ -43161,19 +43165,45 @@
         <v>1662.1415</v>
       </c>
       <c r="C3645" t="inlineStr"/>
-      <c r="D3645" t="inlineStr"/>
+      <c r="D3645" t="n">
+        <v>-1507.8556</v>
+      </c>
     </row>
     <row r="3646">
       <c r="A3646" s="2" t="n">
         <v>45954</v>
       </c>
       <c r="B3646" t="n">
-        <v>1619.51</v>
+        <v>1649.5996</v>
       </c>
       <c r="C3646" t="n">
         <v>78.5</v>
       </c>
-      <c r="D3646" t="inlineStr"/>
+      <c r="D3646" t="n">
+        <v>-1456.8624</v>
+      </c>
+    </row>
+    <row r="3647">
+      <c r="A3647" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B3647" t="n">
+        <v>1635.0559</v>
+      </c>
+      <c r="C3647" t="inlineStr"/>
+      <c r="D3647" t="n">
+        <v>-1495.5546</v>
+      </c>
+    </row>
+    <row r="3648">
+      <c r="A3648" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B3648" t="n">
+        <v>1658.5813</v>
+      </c>
+      <c r="C3648" t="inlineStr"/>
+      <c r="D3648" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
